--- a/nr-test-extension/ig/StructureDefinition-eclaire-arm-intervention.xlsx
+++ b/nr-test-extension/ig/StructureDefinition-eclaire-arm-intervention.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-23T14:30:41+00:00</t>
+    <t>2025-07-23T15:19:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
